--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.79338833333333</v>
+        <v>17.70540233333334</v>
       </c>
       <c r="H2">
-        <v>53.380165</v>
+        <v>53.116207</v>
       </c>
       <c r="I2">
-        <v>0.03367218387878441</v>
+        <v>0.03297671133698152</v>
       </c>
       <c r="J2">
-        <v>0.03367218387878442</v>
+        <v>0.03297671133698151</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N2">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q2">
-        <v>17.50911523019056</v>
+        <v>13.44249622073978</v>
       </c>
       <c r="R2">
-        <v>157.582037071715</v>
+        <v>120.982465986658</v>
       </c>
       <c r="S2">
-        <v>0.00276123610975165</v>
+        <v>0.00175149503941448</v>
       </c>
       <c r="T2">
-        <v>0.002761236109751651</v>
+        <v>0.001751495039414479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.79338833333333</v>
+        <v>17.70540233333334</v>
       </c>
       <c r="H3">
-        <v>53.380165</v>
+        <v>53.116207</v>
       </c>
       <c r="I3">
-        <v>0.03367218387878441</v>
+        <v>0.03297671133698152</v>
       </c>
       <c r="J3">
-        <v>0.03367218387878442</v>
+        <v>0.03297671133698151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q3">
-        <v>43.78129628066444</v>
+        <v>43.56480344285379</v>
       </c>
       <c r="R3">
-        <v>394.03166652598</v>
+        <v>392.0832309856841</v>
       </c>
       <c r="S3">
-        <v>0.006904432041971924</v>
+        <v>0.005676292250356017</v>
       </c>
       <c r="T3">
-        <v>0.006904432041971926</v>
+        <v>0.005676292250356015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.79338833333333</v>
+        <v>17.70540233333334</v>
       </c>
       <c r="H4">
-        <v>53.380165</v>
+        <v>53.116207</v>
       </c>
       <c r="I4">
-        <v>0.03367218387878441</v>
+        <v>0.03297671133698152</v>
       </c>
       <c r="J4">
-        <v>0.03367218387878442</v>
+        <v>0.03297671133698151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N4">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q4">
-        <v>6.515049138249999</v>
+        <v>18.03756158290745</v>
       </c>
       <c r="R4">
-        <v>58.63544224424999</v>
+        <v>162.338054246167</v>
       </c>
       <c r="S4">
-        <v>0.001027441347026105</v>
+        <v>0.002350210787997301</v>
       </c>
       <c r="T4">
-        <v>0.001027441347026105</v>
+        <v>0.0023502107879973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.79338833333333</v>
+        <v>17.70540233333334</v>
       </c>
       <c r="H5">
-        <v>53.380165</v>
+        <v>53.116207</v>
       </c>
       <c r="I5">
-        <v>0.03367218387878441</v>
+        <v>0.03297671133698152</v>
       </c>
       <c r="J5">
-        <v>0.03367218387878442</v>
+        <v>0.03297671133698151</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N5">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q5">
-        <v>143.4632799856872</v>
+        <v>175.1622837192276</v>
       </c>
       <c r="R5">
-        <v>1291.169519871185</v>
+        <v>1576.460553473048</v>
       </c>
       <c r="S5">
-        <v>0.02262455777530339</v>
+        <v>0.02282283483579472</v>
       </c>
       <c r="T5">
-        <v>0.0226245577753034</v>
+        <v>0.02282283483579472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.79338833333333</v>
+        <v>17.70540233333334</v>
       </c>
       <c r="H6">
-        <v>53.380165</v>
+        <v>53.116207</v>
       </c>
       <c r="I6">
-        <v>0.03367218387878441</v>
+        <v>0.03297671133698152</v>
       </c>
       <c r="J6">
-        <v>0.03367218387878442</v>
+        <v>0.03297671133698151</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N6">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q6">
-        <v>2.248004819774444</v>
+        <v>2.884817925580111</v>
       </c>
       <c r="R6">
-        <v>20.23204337797</v>
+        <v>25.963361330221</v>
       </c>
       <c r="S6">
-        <v>0.0003545166047313398</v>
+        <v>0.0003758784234190001</v>
       </c>
       <c r="T6">
-        <v>0.0003545166047313398</v>
+        <v>0.0003758784234189999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1434.474213</v>
       </c>
       <c r="I7">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302765</v>
       </c>
       <c r="J7">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302763</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N7">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q7">
-        <v>470.5188582716804</v>
+        <v>363.0325897894247</v>
       </c>
       <c r="R7">
-        <v>4234.669724445123</v>
+        <v>3267.293308104822</v>
       </c>
       <c r="S7">
-        <v>0.07420213098710318</v>
+        <v>0.04730146616526081</v>
       </c>
       <c r="T7">
-        <v>0.07420213098710318</v>
+        <v>0.0473014661652608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1434.474213</v>
       </c>
       <c r="I8">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302765</v>
       </c>
       <c r="J8">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302763</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q8">
         <v>1176.525784930151</v>
@@ -948,10 +948,10 @@
         <v>10588.73206437136</v>
       </c>
       <c r="S8">
-        <v>0.1855413845127616</v>
+        <v>0.1532958642658246</v>
       </c>
       <c r="T8">
-        <v>0.1855413845127616</v>
+        <v>0.1532958642658246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1434.474213</v>
       </c>
       <c r="I9">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302765</v>
       </c>
       <c r="J9">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302763</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N9">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q9">
-        <v>175.07757769665</v>
+        <v>487.1284757979836</v>
       </c>
       <c r="R9">
-        <v>1575.69819926985</v>
+        <v>4384.156282181852</v>
       </c>
       <c r="S9">
-        <v>0.02761022034455929</v>
+        <v>0.06347058573848352</v>
       </c>
       <c r="T9">
-        <v>0.02761022034455929</v>
+        <v>0.06347058573848351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1434.474213</v>
       </c>
       <c r="I10">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302765</v>
       </c>
       <c r="J10">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302763</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N10">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q10">
-        <v>3855.259264407807</v>
+        <v>4730.491751517981</v>
       </c>
       <c r="R10">
-        <v>34697.33337967026</v>
+        <v>42574.42576366183</v>
       </c>
       <c r="S10">
-        <v>0.6079850953851749</v>
+        <v>0.6163611802986161</v>
       </c>
       <c r="T10">
-        <v>0.6079850953851749</v>
+        <v>0.6163611802986161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1434.474213</v>
       </c>
       <c r="I11">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302765</v>
       </c>
       <c r="J11">
-        <v>0.9048656831523576</v>
+        <v>0.8905801960302763</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N11">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q11">
-        <v>60.41017191809267</v>
+        <v>77.90836652633766</v>
       </c>
       <c r="R11">
-        <v>543.691547262834</v>
+        <v>701.1752987370389</v>
       </c>
       <c r="S11">
-        <v>0.009526851922758591</v>
+        <v>0.0101510995620913</v>
       </c>
       <c r="T11">
-        <v>0.009526851922758589</v>
+        <v>0.0101510995620913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.073687</v>
+        <v>0.199418</v>
       </c>
       <c r="H12">
-        <v>0.221061</v>
+        <v>0.598254</v>
       </c>
       <c r="I12">
-        <v>0.0001394451785682559</v>
+        <v>0.000371420524515136</v>
       </c>
       <c r="J12">
-        <v>0.0001394451785682559</v>
+        <v>0.0003714205245151359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N12">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q12">
-        <v>0.07250975192566668</v>
+        <v>0.1514043940306666</v>
       </c>
       <c r="R12">
-        <v>0.6525877673310001</v>
+        <v>1.362639546276</v>
       </c>
       <c r="S12">
-        <v>1.143498930094745E-05</v>
+        <v>1.972729177197969E-05</v>
       </c>
       <c r="T12">
-        <v>1.143498930094745E-05</v>
+        <v>1.972729177197968E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.073687</v>
+        <v>0.199418</v>
       </c>
       <c r="H13">
-        <v>0.221061</v>
+        <v>0.598254</v>
       </c>
       <c r="I13">
-        <v>0.0001394451785682559</v>
+        <v>0.000371420524515136</v>
       </c>
       <c r="J13">
-        <v>0.0001394451785682559</v>
+        <v>0.0003714205245151359</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q13">
-        <v>0.1813096144813333</v>
+        <v>0.4906754339386666</v>
       </c>
       <c r="R13">
-        <v>1.631786530332</v>
+        <v>4.416078905448</v>
       </c>
       <c r="S13">
-        <v>2.859302985725795E-05</v>
+        <v>6.39327379672364E-05</v>
       </c>
       <c r="T13">
-        <v>2.859302985725795E-05</v>
+        <v>6.393273796723638E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.073687</v>
+        <v>0.199418</v>
       </c>
       <c r="H14">
-        <v>0.221061</v>
+        <v>0.598254</v>
       </c>
       <c r="I14">
-        <v>0.0001394451785682559</v>
+        <v>0.000371420524515136</v>
       </c>
       <c r="J14">
-        <v>0.0001394451785682559</v>
+        <v>0.0003714205245151359</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N14">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q14">
-        <v>0.02698049505</v>
+        <v>0.2031591481526666</v>
       </c>
       <c r="R14">
-        <v>0.24282445545</v>
+        <v>1.828432333374</v>
       </c>
       <c r="S14">
-        <v>4.254899017545896E-06</v>
+        <v>2.647069668891337E-05</v>
       </c>
       <c r="T14">
-        <v>4.254899017545896E-06</v>
+        <v>2.647069668891336E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.073687</v>
+        <v>0.199418</v>
       </c>
       <c r="H15">
-        <v>0.221061</v>
+        <v>0.598254</v>
       </c>
       <c r="I15">
-        <v>0.0001394451785682559</v>
+        <v>0.000371420524515136</v>
       </c>
       <c r="J15">
-        <v>0.0001394451785682559</v>
+        <v>0.0003714205245151359</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N15">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q15">
-        <v>0.5941183609476668</v>
+        <v>1.972873117317333</v>
       </c>
       <c r="R15">
-        <v>5.347065248529001</v>
+        <v>17.755858055856</v>
       </c>
       <c r="S15">
-        <v>9.369411590178383E-05</v>
+        <v>0.0002570562358086588</v>
       </c>
       <c r="T15">
-        <v>9.369411590178383E-05</v>
+        <v>0.0002570562358086588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.073687</v>
+        <v>0.199418</v>
       </c>
       <c r="H16">
-        <v>0.221061</v>
+        <v>0.598254</v>
       </c>
       <c r="I16">
-        <v>0.0001394451785682559</v>
+        <v>0.000371420524515136</v>
       </c>
       <c r="J16">
-        <v>0.0001394451785682559</v>
+        <v>0.0003714205245151359</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N16">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q16">
-        <v>0.009309566455333334</v>
+        <v>0.03249203888466666</v>
       </c>
       <c r="R16">
-        <v>0.083786098098</v>
+        <v>0.292428349962</v>
       </c>
       <c r="S16">
-        <v>1.468144490720752E-06</v>
+        <v>4.233562278347744E-06</v>
       </c>
       <c r="T16">
-        <v>1.468144490720752E-06</v>
+        <v>4.233562278347743E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.38804233333334</v>
+        <v>40.56177066666667</v>
       </c>
       <c r="H17">
-        <v>97.16412700000001</v>
+        <v>121.685312</v>
       </c>
       <c r="I17">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141779</v>
       </c>
       <c r="J17">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141778</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N17">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q17">
-        <v>31.8706001730019</v>
+        <v>30.79576722561422</v>
       </c>
       <c r="R17">
-        <v>286.835401557017</v>
+        <v>277.161905030528</v>
       </c>
       <c r="S17">
-        <v>0.005026082179492988</v>
+        <v>0.004012545932310325</v>
       </c>
       <c r="T17">
-        <v>0.005026082179492988</v>
+        <v>0.004012545932310324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>32.38804233333334</v>
+        <v>40.56177066666667</v>
       </c>
       <c r="H18">
-        <v>97.16412700000001</v>
+        <v>121.685312</v>
       </c>
       <c r="I18">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141779</v>
       </c>
       <c r="J18">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141778</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q18">
-        <v>79.69198731474712</v>
+        <v>99.80375103143822</v>
       </c>
       <c r="R18">
-        <v>717.2278858327242</v>
+        <v>898.233759282944</v>
       </c>
       <c r="S18">
-        <v>0.01256764777308256</v>
+        <v>0.01300396682104492</v>
       </c>
       <c r="T18">
-        <v>0.01256764777308256</v>
+        <v>0.01300396682104492</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>32.38804233333334</v>
+        <v>40.56177066666667</v>
       </c>
       <c r="H19">
-        <v>97.16412700000001</v>
+        <v>121.685312</v>
       </c>
       <c r="I19">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141779</v>
       </c>
       <c r="J19">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141778</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N19">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q19">
-        <v>11.85888170035</v>
+        <v>41.32272300496356</v>
       </c>
       <c r="R19">
-        <v>106.72993530315</v>
+        <v>371.904507044672</v>
       </c>
       <c r="S19">
-        <v>0.001870178586512341</v>
+        <v>0.005384159546693863</v>
       </c>
       <c r="T19">
-        <v>0.001870178586512341</v>
+        <v>0.005384159546693862</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.38804233333334</v>
+        <v>40.56177066666667</v>
       </c>
       <c r="H20">
-        <v>97.16412700000001</v>
+        <v>121.685312</v>
       </c>
       <c r="I20">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141779</v>
       </c>
       <c r="J20">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141778</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N20">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q20">
-        <v>261.1360297662226</v>
+        <v>401.2838707591964</v>
       </c>
       <c r="R20">
-        <v>2350.224267896003</v>
+        <v>3611.554836832768</v>
       </c>
       <c r="S20">
-        <v>0.04118187729465461</v>
+        <v>0.05228543103083676</v>
       </c>
       <c r="T20">
-        <v>0.04118187729465461</v>
+        <v>0.05228543103083676</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.38804233333334</v>
+        <v>40.56177066666667</v>
       </c>
       <c r="H21">
-        <v>97.16412700000001</v>
+        <v>121.685312</v>
       </c>
       <c r="I21">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141779</v>
       </c>
       <c r="J21">
-        <v>0.06129108725620391</v>
+        <v>0.07554721307141778</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N21">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q21">
-        <v>4.091883676365112</v>
+        <v>6.608905062392888</v>
       </c>
       <c r="R21">
-        <v>36.826953087286</v>
+        <v>59.480145561536</v>
       </c>
       <c r="S21">
-        <v>0.0006453014224614088</v>
+        <v>0.000861109740531908</v>
       </c>
       <c r="T21">
-        <v>0.0006453014224614087</v>
+        <v>0.0008611097405319079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.01669866666666666</v>
+        <v>0.2815853333333333</v>
       </c>
       <c r="H22">
-        <v>0.05009599999999999</v>
+        <v>0.844756</v>
       </c>
       <c r="I22">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="J22">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N22">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q22">
-        <v>0.01643188320177778</v>
+        <v>0.2137884080737777</v>
       </c>
       <c r="R22">
-        <v>0.147886948816</v>
+        <v>1.924095672664</v>
       </c>
       <c r="S22">
-        <v>2.591353626466285E-06</v>
+        <v>2.785564005945714E-05</v>
       </c>
       <c r="T22">
-        <v>2.591353626466285E-06</v>
+        <v>2.785564005945714E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.01669866666666666</v>
+        <v>0.2815853333333333</v>
       </c>
       <c r="H23">
-        <v>0.05009599999999999</v>
+        <v>0.844756</v>
       </c>
       <c r="I23">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="J23">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q23">
-        <v>0.04108769275022221</v>
+        <v>0.6928512251857777</v>
       </c>
       <c r="R23">
-        <v>0.369789234752</v>
+        <v>6.235661026672</v>
       </c>
       <c r="S23">
-        <v>6.47964328275541E-06</v>
+        <v>9.02753078027907E-05</v>
       </c>
       <c r="T23">
-        <v>6.479643282755412E-06</v>
+        <v>9.02753078027907E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.01669866666666666</v>
+        <v>0.2815853333333333</v>
       </c>
       <c r="H24">
-        <v>0.05009599999999999</v>
+        <v>0.844756</v>
       </c>
       <c r="I24">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="J24">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N24">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q24">
-        <v>0.006114216799999998</v>
+        <v>0.2868679680484444</v>
       </c>
       <c r="R24">
-        <v>0.05502795119999999</v>
+        <v>2.581811712436</v>
       </c>
       <c r="S24">
-        <v>9.642289738261343E-07</v>
+        <v>3.737756847783667E-05</v>
       </c>
       <c r="T24">
-        <v>9.642289738261345E-07</v>
+        <v>3.737756847783667E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.01669866666666666</v>
+        <v>0.2815853333333333</v>
       </c>
       <c r="H25">
-        <v>0.05009599999999999</v>
+        <v>0.844756</v>
       </c>
       <c r="I25">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="J25">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N25">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q25">
-        <v>0.1346368351271111</v>
+        <v>2.785767254531555</v>
       </c>
       <c r="R25">
-        <v>1.211731516144</v>
+        <v>25.071905290784</v>
       </c>
       <c r="S25">
-        <v>2.123260290243761E-05</v>
+        <v>0.0003629725794341189</v>
       </c>
       <c r="T25">
-        <v>2.123260290243762E-05</v>
+        <v>0.0003629725794341189</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.01669866666666666</v>
+        <v>0.2815853333333333</v>
       </c>
       <c r="H26">
-        <v>0.05009599999999999</v>
+        <v>0.844756</v>
       </c>
       <c r="I26">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="J26">
-        <v>3.160053408586474E-05</v>
+        <v>0.0005244590368092954</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N26">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q26">
-        <v>0.002109698414222222</v>
+        <v>0.04587991856311111</v>
       </c>
       <c r="R26">
-        <v>0.018987285728</v>
+        <v>0.412919267068</v>
       </c>
       <c r="S26">
-        <v>3.327053003792925E-07</v>
+        <v>5.977941035091995E-06</v>
       </c>
       <c r="T26">
-        <v>3.327053003792925E-07</v>
+        <v>5.977941035091995E-06</v>
       </c>
     </row>
   </sheetData>
